--- a/data/trans_orig/MCS12_SP_R3-Edad-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP_R3-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B7DCC40-44B1-4BEC-9EBF-21F8E7E2172C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C60D85B-915C-4C88-AA5B-E887B7E5497A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{167B441A-90B2-439A-A57B-489380EFCC4E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BB59EC82-35B2-4313-9304-D3A566BD90D6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="514">
-  <si>
-    <t>Población en el primer cuartil de la puntuación del componente de salud mental (SF12) en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="575">
+  <si>
+    <t>Población en el primer cuartil (48.3888) de la puntuación del componente de salud mental (SF12) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>13,21%</t>
@@ -191,7 +191,7 @@
     <t>84,96%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>21,14%</t>
@@ -248,7 +248,7 @@
     <t>79,13%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>16,93%</t>
@@ -305,7 +305,7 @@
     <t>78,7%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>25,02%</t>
@@ -356,1231 +356,1414 @@
     <t>73,81%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población en el primer cuartil (48.3888) de la puntuación del componente de salud mental (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>Población en el primer cuartil (48.3888) de la puntuación del componente de salud mental (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
   </si>
   <si>
     <t>26,94%</t>
   </si>
   <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>Población en el primer cuartil (48.3888) de la puntuación del componente de salud mental (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
   </si>
   <si>
     <t>29,43%</t>
   </si>
   <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población en el primer cuartil de la puntuación del componente de salud mental (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>Población en el primer cuartil de la puntuación del componente de salud mental (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>Población en el primer cuartil de la puntuación del componente de salud mental (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
   </si>
 </sst>
 </file>
@@ -1992,8 +2175,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE5A7E1-0252-415F-835C-AFAD8FB97CB6}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592CBC25-49CF-4DB7-BC14-BA95E396DA7D}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2885,10 +3068,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="D19" s="7">
-        <v>135353</v>
+        <v>78974</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>106</v>
@@ -2900,10 +3083,10 @@
         <v>108</v>
       </c>
       <c r="H19" s="7">
-        <v>203</v>
+        <v>112</v>
       </c>
       <c r="I19" s="7">
-        <v>211727</v>
+        <v>105309</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>109</v>
@@ -2915,10 +3098,10 @@
         <v>111</v>
       </c>
       <c r="M19" s="7">
-        <v>343</v>
+        <v>193</v>
       </c>
       <c r="N19" s="7">
-        <v>347080</v>
+        <v>184283</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>112</v>
@@ -2936,10 +3119,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>383</v>
+        <v>222</v>
       </c>
       <c r="D20" s="7">
-        <v>367113</v>
+        <v>213609</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>115</v>
@@ -2951,10 +3134,10 @@
         <v>117</v>
       </c>
       <c r="H20" s="7">
-        <v>458</v>
+        <v>259</v>
       </c>
       <c r="I20" s="7">
-        <v>465115</v>
+        <v>237625</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>118</v>
@@ -2966,10 +3149,10 @@
         <v>120</v>
       </c>
       <c r="M20" s="7">
-        <v>841</v>
+        <v>481</v>
       </c>
       <c r="N20" s="7">
-        <v>832228</v>
+        <v>451234</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>121</v>
@@ -2987,10 +3170,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3002,10 +3185,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3017,10 +3200,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3034,55 +3217,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>595</v>
+        <v>59</v>
       </c>
       <c r="D22" s="7">
-        <v>610539</v>
+        <v>56380</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
-        <v>868</v>
+        <v>91</v>
       </c>
       <c r="I22" s="7">
-        <v>897137</v>
+        <v>106418</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
-        <v>1463</v>
+        <v>150</v>
       </c>
       <c r="N22" s="7">
-        <v>1507676</v>
+        <v>162797</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,49 +3274,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2619</v>
+        <v>161</v>
       </c>
       <c r="D23" s="7">
-        <v>2666005</v>
+        <v>153503</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
-        <v>2429</v>
+        <v>199</v>
       </c>
       <c r="I23" s="7">
-        <v>2482061</v>
+        <v>227490</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
-        <v>5048</v>
+        <v>360</v>
       </c>
       <c r="N23" s="7">
-        <v>5148064</v>
+        <v>380994</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,63 +3325,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>595</v>
+      </c>
+      <c r="D25" s="7">
+        <v>610539</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>868</v>
+      </c>
+      <c r="I25" s="7">
+        <v>897137</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1463</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1507677</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2619</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2666004</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2429</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2482060</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5048</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5148064</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3214</v>
       </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6511</v>
       </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3211,8 +3550,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D45D481-5503-4AC5-84AE-1E7E40029CC6}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0AA5B7-3C69-4232-AD18-BBB86B353988}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3228,7 +3567,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3335,13 +3674,13 @@
         <v>72005</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>74</v>
@@ -3350,13 +3689,13 @@
         <v>77778</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="M4" s="7">
         <v>145</v>
@@ -3365,13 +3704,13 @@
         <v>149783</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,10 +3725,10 @@
         <v>382141</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>29</v>
@@ -3401,13 +3740,13 @@
         <v>352452</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="M5" s="7">
         <v>722</v>
@@ -3416,13 +3755,13 @@
         <v>734593</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,13 +3829,13 @@
         <v>123725</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
         <v>132</v>
@@ -3505,13 +3844,13 @@
         <v>141519</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>247</v>
@@ -3520,13 +3859,13 @@
         <v>265245</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,13 +3880,13 @@
         <v>563362</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="H8" s="7">
         <v>439</v>
@@ -3556,13 +3895,13 @@
         <v>468736</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>991</v>
@@ -3571,13 +3910,13 @@
         <v>1032097</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,13 +3984,13 @@
         <v>156895</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>221</v>
@@ -3660,13 +3999,13 @@
         <v>235654</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>373</v>
@@ -3675,13 +4014,13 @@
         <v>392548</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,13 +4035,13 @@
         <v>524968</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="H11" s="7">
         <v>446</v>
@@ -3711,13 +4050,13 @@
         <v>475196</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>945</v>
@@ -3726,13 +4065,13 @@
         <v>1000164</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,13 +4139,13 @@
         <v>137197</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>191</v>
@@ -3815,13 +4154,13 @@
         <v>218723</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>315</v>
@@ -3830,13 +4169,13 @@
         <v>355920</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,13 +4190,13 @@
         <v>477420</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>348</v>
@@ -3866,13 +4205,13 @@
         <v>397476</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>772</v>
@@ -3881,13 +4220,13 @@
         <v>874896</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,13 +4294,13 @@
         <v>115274</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>162</v>
@@ -3970,13 +4309,13 @@
         <v>178090</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="M16" s="7">
         <v>268</v>
@@ -3985,13 +4324,13 @@
         <v>293363</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,13 +4345,13 @@
         <v>314155</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
         <v>244</v>
@@ -4021,13 +4360,13 @@
         <v>269710</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>531</v>
@@ -4036,13 +4375,13 @@
         <v>583866</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,49 +4443,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="D19" s="7">
-        <v>158482</v>
+        <v>78209</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>53</v>
+        <v>250</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="H19" s="7">
-        <v>292</v>
+        <v>130</v>
       </c>
       <c r="I19" s="7">
-        <v>310929</v>
+        <v>130754</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="M19" s="7">
-        <v>434</v>
+        <v>202</v>
       </c>
       <c r="N19" s="7">
-        <v>469412</v>
+        <v>208964</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,49 +4494,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>362</v>
+        <v>210</v>
       </c>
       <c r="D20" s="7">
-        <v>401155</v>
+        <v>231577</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>61</v>
+        <v>260</v>
       </c>
       <c r="H20" s="7">
-        <v>402</v>
+        <v>214</v>
       </c>
       <c r="I20" s="7">
-        <v>432046</v>
+        <v>223242</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
-        <v>764</v>
+        <v>424</v>
       </c>
       <c r="N20" s="7">
-        <v>833200</v>
+        <v>454818</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,10 +4545,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4221,10 +4560,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4236,10 +4575,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4253,55 +4592,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>710</v>
+        <v>70</v>
       </c>
       <c r="D22" s="7">
-        <v>763578</v>
+        <v>80273</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
-        <v>1072</v>
+        <v>162</v>
       </c>
       <c r="I22" s="7">
-        <v>1162693</v>
+        <v>180175</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
-        <v>1782</v>
+        <v>232</v>
       </c>
       <c r="N22" s="7">
-        <v>1926272</v>
+        <v>260448</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,49 +4649,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2499</v>
+        <v>152</v>
       </c>
       <c r="D23" s="7">
-        <v>2663201</v>
+        <v>169578</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="H23" s="7">
-        <v>2226</v>
+        <v>188</v>
       </c>
       <c r="I23" s="7">
-        <v>2395616</v>
+        <v>208804</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="M23" s="7">
-        <v>4725</v>
+        <v>340</v>
       </c>
       <c r="N23" s="7">
-        <v>5058816</v>
+        <v>378382</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,63 +4700,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>710</v>
+      </c>
+      <c r="D25" s="7">
+        <v>763578</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1072</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1162693</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1782</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1926272</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2499</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2663201</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2226</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2395616</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4725</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5058816</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3298</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3558309</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6507</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6985088</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4430,8 +4925,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66731CAA-BB4A-4F18-8EAE-A11D85BAD9D7}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F4B6270-42B4-4544-B425-7B1E26ED6A4C}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4447,7 +4942,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4554,13 +5049,13 @@
         <v>46670</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="H4" s="7">
         <v>50</v>
@@ -4569,13 +5064,13 @@
         <v>49957</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="M4" s="7">
         <v>94</v>
@@ -4584,13 +5079,13 @@
         <v>96627</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +5100,13 @@
         <v>372793</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="H5" s="7">
         <v>354</v>
@@ -4620,13 +5115,13 @@
         <v>345798</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="M5" s="7">
         <v>703</v>
@@ -4635,13 +5130,13 @@
         <v>718591</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,13 +5204,13 @@
         <v>90682</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="H7" s="7">
         <v>102</v>
@@ -4724,13 +5219,13 @@
         <v>99042</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="M7" s="7">
         <v>189</v>
@@ -4739,13 +5234,13 @@
         <v>189724</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,13 +5255,13 @@
         <v>499814</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="H8" s="7">
         <v>477</v>
@@ -4775,13 +5270,13 @@
         <v>464502</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="M8" s="7">
         <v>957</v>
@@ -4790,13 +5285,13 @@
         <v>964316</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,13 +5359,13 @@
         <v>118600</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="H10" s="7">
         <v>151</v>
@@ -4879,13 +5374,13 @@
         <v>148123</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="M10" s="7">
         <v>262</v>
@@ -4894,13 +5389,13 @@
         <v>266723</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,13 +5410,13 @@
         <v>550497</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="H11" s="7">
         <v>514</v>
@@ -4930,13 +5425,13 @@
         <v>513263</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="M11" s="7">
         <v>1041</v>
@@ -4945,13 +5440,13 @@
         <v>1063760</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,10 +5514,10 @@
         <v>148151</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>78</v>
@@ -5034,13 +5529,13 @@
         <v>197203</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>106</v>
+        <v>359</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="M13" s="7">
         <v>320</v>
@@ -5049,13 +5544,13 @@
         <v>345354</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,13 +5565,13 @@
         <v>497897</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="H14" s="7">
         <v>417</v>
@@ -5085,13 +5580,13 @@
         <v>451874</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>115</v>
+        <v>368</v>
       </c>
       <c r="M14" s="7">
         <v>864</v>
@@ -5100,13 +5595,13 @@
         <v>949771</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,13 +5669,13 @@
         <v>102473</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="H16" s="7">
         <v>147</v>
@@ -5189,13 +5684,13 @@
         <v>167250</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="M16" s="7">
         <v>239</v>
@@ -5204,13 +5699,13 @@
         <v>269723</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,13 +5720,13 @@
         <v>375445</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="H17" s="7">
         <v>286</v>
@@ -5240,13 +5735,13 @@
         <v>329599</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="M17" s="7">
         <v>618</v>
@@ -5255,13 +5750,13 @@
         <v>705044</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5323,49 +5818,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="D19" s="7">
-        <v>133648</v>
+        <v>60918</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="H19" s="7">
-        <v>244</v>
+        <v>125</v>
       </c>
       <c r="I19" s="7">
-        <v>287440</v>
+        <v>132031</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="M19" s="7">
-        <v>388</v>
+        <v>184</v>
       </c>
       <c r="N19" s="7">
-        <v>421088</v>
+        <v>192950</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5374,49 +5869,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>483</v>
+        <v>266</v>
       </c>
       <c r="D20" s="7">
-        <v>457680</v>
+        <v>273412</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="H20" s="7">
-        <v>411</v>
+        <v>229</v>
       </c>
       <c r="I20" s="7">
-        <v>490491</v>
+        <v>245731</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="M20" s="7">
-        <v>894</v>
+        <v>495</v>
       </c>
       <c r="N20" s="7">
-        <v>948171</v>
+        <v>519142</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5425,10 +5920,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5440,10 +5935,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5455,10 +5950,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5472,55 +5967,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>613</v>
+        <v>85</v>
       </c>
       <c r="D22" s="7">
-        <v>640223</v>
+        <v>72729</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H22" s="7">
-        <v>879</v>
+        <v>119</v>
       </c>
       <c r="I22" s="7">
-        <v>949015</v>
+        <v>155409</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>374</v>
+        <v>412</v>
       </c>
       <c r="M22" s="7">
-        <v>1492</v>
+        <v>204</v>
       </c>
       <c r="N22" s="7">
-        <v>1589239</v>
+        <v>228138</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>375</v>
+        <v>413</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>376</v>
+        <v>414</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>377</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,49 +6024,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2618</v>
+        <v>217</v>
       </c>
       <c r="D23" s="7">
-        <v>2754127</v>
+        <v>184269</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>380</v>
+        <v>417</v>
       </c>
       <c r="H23" s="7">
-        <v>2459</v>
+        <v>182</v>
       </c>
       <c r="I23" s="7">
-        <v>2595527</v>
+        <v>244760</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>381</v>
+        <v>418</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>383</v>
+        <v>420</v>
       </c>
       <c r="M23" s="7">
-        <v>5077</v>
+        <v>399</v>
       </c>
       <c r="N23" s="7">
-        <v>5349653</v>
+        <v>429029</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>384</v>
+        <v>421</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>385</v>
+        <v>422</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>386</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,63 +6075,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>613</v>
+      </c>
+      <c r="D25" s="7">
+        <v>640223</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="H25" s="7">
+        <v>879</v>
+      </c>
+      <c r="I25" s="7">
+        <v>949015</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1492</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1589239</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2618</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2754127</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2459</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2595527</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5077</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5349653</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5649,8 +6300,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D8F47B-9762-44A8-98F9-1FB0C5A6136F}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E5D2BD-6AC7-4262-B2BE-73AB07D29FB1}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5666,7 +6317,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>387</v>
+        <v>442</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5770,46 +6421,46 @@
         <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>29468</v>
+        <v>30298</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>390</v>
+        <v>445</v>
       </c>
       <c r="H4" s="7">
         <v>39</v>
       </c>
       <c r="I4" s="7">
-        <v>73121</v>
+        <v>65376</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>393</v>
+        <v>448</v>
       </c>
       <c r="M4" s="7">
         <v>55</v>
       </c>
       <c r="N4" s="7">
-        <v>102589</v>
+        <v>95674</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>394</v>
+        <v>449</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>395</v>
+        <v>450</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>396</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,46 +6472,46 @@
         <v>156</v>
       </c>
       <c r="D5" s="7">
-        <v>348211</v>
+        <v>369689</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>397</v>
+        <v>452</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>398</v>
+        <v>453</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>399</v>
+        <v>454</v>
       </c>
       <c r="H5" s="7">
         <v>167</v>
       </c>
       <c r="I5" s="7">
-        <v>280147</v>
+        <v>246241</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>401</v>
+        <v>456</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>402</v>
+        <v>457</v>
       </c>
       <c r="M5" s="7">
         <v>323</v>
       </c>
       <c r="N5" s="7">
-        <v>628358</v>
+        <v>615930</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>403</v>
+        <v>458</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>404</v>
+        <v>459</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>405</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5872,7 +6523,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5887,7 +6538,7 @@
         <v>206</v>
       </c>
       <c r="I6" s="7">
-        <v>353268</v>
+        <v>311617</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5902,7 +6553,7 @@
         <v>378</v>
       </c>
       <c r="N6" s="7">
-        <v>730947</v>
+        <v>711604</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5925,46 +6576,46 @@
         <v>39</v>
       </c>
       <c r="D7" s="7">
-        <v>51079</v>
+        <v>49609</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>406</v>
+        <v>461</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>407</v>
+        <v>462</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>408</v>
+        <v>463</v>
       </c>
       <c r="H7" s="7">
         <v>95</v>
       </c>
       <c r="I7" s="7">
-        <v>100373</v>
+        <v>90251</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>410</v>
+        <v>464</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>411</v>
+        <v>465</v>
       </c>
       <c r="M7" s="7">
         <v>134</v>
       </c>
       <c r="N7" s="7">
-        <v>151452</v>
+        <v>139860</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>412</v>
+        <v>466</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>413</v>
+        <v>467</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>414</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5976,46 +6627,46 @@
         <v>263</v>
       </c>
       <c r="D8" s="7">
-        <v>377317</v>
+        <v>373938</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>416</v>
+        <v>470</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="H8" s="7">
         <v>364</v>
       </c>
       <c r="I8" s="7">
-        <v>397611</v>
+        <v>420713</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>418</v>
+        <v>459</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="M8" s="7">
         <v>627</v>
       </c>
       <c r="N8" s="7">
-        <v>774928</v>
+        <v>794651</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>421</v>
+        <v>474</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>422</v>
+        <v>475</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6027,7 +6678,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6042,7 +6693,7 @@
         <v>459</v>
       </c>
       <c r="I9" s="7">
-        <v>497984</v>
+        <v>510964</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6057,7 +6708,7 @@
         <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>926380</v>
+        <v>934511</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6080,46 +6731,46 @@
         <v>99</v>
       </c>
       <c r="D10" s="7">
-        <v>101952</v>
+        <v>96044</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>426</v>
+        <v>479</v>
       </c>
       <c r="H10" s="7">
         <v>187</v>
       </c>
       <c r="I10" s="7">
-        <v>117310</v>
+        <v>108654</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>427</v>
+        <v>480</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>428</v>
+        <v>481</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M10" s="7">
         <v>286</v>
       </c>
       <c r="N10" s="7">
-        <v>219262</v>
+        <v>204699</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>430</v>
+        <v>482</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>431</v>
+        <v>483</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>432</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6131,46 +6782,46 @@
         <v>446</v>
       </c>
       <c r="D11" s="7">
-        <v>454328</v>
+        <v>439325</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>433</v>
+        <v>485</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>434</v>
+        <v>486</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>435</v>
+        <v>487</v>
       </c>
       <c r="H11" s="7">
         <v>658</v>
       </c>
       <c r="I11" s="7">
-        <v>465320</v>
+        <v>433104</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>436</v>
+        <v>488</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>438</v>
+        <v>489</v>
       </c>
       <c r="M11" s="7">
         <v>1104</v>
       </c>
       <c r="N11" s="7">
-        <v>919647</v>
+        <v>872429</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6182,7 +6833,7 @@
         <v>545</v>
       </c>
       <c r="D12" s="7">
-        <v>556280</v>
+        <v>535369</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6197,7 +6848,7 @@
         <v>845</v>
       </c>
       <c r="I12" s="7">
-        <v>582630</v>
+        <v>541758</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6212,7 +6863,7 @@
         <v>1390</v>
       </c>
       <c r="N12" s="7">
-        <v>1138909</v>
+        <v>1077128</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6235,46 +6886,46 @@
         <v>140</v>
       </c>
       <c r="D13" s="7">
-        <v>147544</v>
+        <v>143934</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>443</v>
+        <v>494</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>444</v>
+        <v>495</v>
       </c>
       <c r="H13" s="7">
         <v>308</v>
       </c>
       <c r="I13" s="7">
-        <v>197538</v>
+        <v>180563</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>445</v>
+        <v>496</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="M13" s="7">
         <v>448</v>
       </c>
       <c r="N13" s="7">
-        <v>345083</v>
+        <v>324497</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>448</v>
+        <v>498</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>449</v>
+        <v>499</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6286,46 +6937,46 @@
         <v>523</v>
       </c>
       <c r="D14" s="7">
-        <v>574282</v>
+        <v>741757</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>452</v>
+        <v>502</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>453</v>
+        <v>503</v>
       </c>
       <c r="H14" s="7">
         <v>827</v>
       </c>
       <c r="I14" s="7">
-        <v>545915</v>
+        <v>528749</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>454</v>
+        <v>504</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>456</v>
+        <v>505</v>
       </c>
       <c r="M14" s="7">
         <v>1350</v>
       </c>
       <c r="N14" s="7">
-        <v>1120197</v>
+        <v>1270506</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>457</v>
+        <v>506</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>458</v>
+        <v>507</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>459</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6337,7 +6988,7 @@
         <v>663</v>
       </c>
       <c r="D15" s="7">
-        <v>721826</v>
+        <v>885691</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6352,7 +7003,7 @@
         <v>1135</v>
       </c>
       <c r="I15" s="7">
-        <v>743453</v>
+        <v>709312</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6367,7 +7018,7 @@
         <v>1798</v>
       </c>
       <c r="N15" s="7">
-        <v>1465280</v>
+        <v>1595003</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6390,46 +7041,46 @@
         <v>166</v>
       </c>
       <c r="D16" s="7">
-        <v>144916</v>
+        <v>133386</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>460</v>
+        <v>509</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>461</v>
+        <v>510</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>462</v>
+        <v>511</v>
       </c>
       <c r="H16" s="7">
         <v>320</v>
       </c>
       <c r="I16" s="7">
-        <v>187090</v>
+        <v>170156</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>463</v>
+        <v>414</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>464</v>
+        <v>512</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>465</v>
+        <v>513</v>
       </c>
       <c r="M16" s="7">
         <v>486</v>
       </c>
       <c r="N16" s="7">
-        <v>332006</v>
+        <v>303542</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>466</v>
+        <v>291</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>468</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6441,46 +7092,46 @@
         <v>492</v>
       </c>
       <c r="D17" s="7">
-        <v>448548</v>
+        <v>421551</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>469</v>
+        <v>516</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>470</v>
+        <v>517</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>471</v>
+        <v>518</v>
       </c>
       <c r="H17" s="7">
         <v>678</v>
       </c>
       <c r="I17" s="7">
-        <v>407490</v>
+        <v>375445</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>472</v>
+        <v>423</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>473</v>
+        <v>519</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="M17" s="7">
         <v>1170</v>
       </c>
       <c r="N17" s="7">
-        <v>856038</v>
+        <v>796996</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>475</v>
+        <v>300</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>476</v>
+        <v>521</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>477</v>
+        <v>522</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6492,7 +7143,7 @@
         <v>658</v>
       </c>
       <c r="D18" s="7">
-        <v>593464</v>
+        <v>554937</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6507,7 +7158,7 @@
         <v>998</v>
       </c>
       <c r="I18" s="7">
-        <v>594580</v>
+        <v>545601</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6522,7 +7173,7 @@
         <v>1656</v>
       </c>
       <c r="N18" s="7">
-        <v>1188044</v>
+        <v>1100538</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6542,49 +7193,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>292</v>
+        <v>144</v>
       </c>
       <c r="D19" s="7">
-        <v>195132</v>
+        <v>90233</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>478</v>
+        <v>523</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>479</v>
+        <v>524</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>480</v>
+        <v>525</v>
       </c>
       <c r="H19" s="7">
-        <v>631</v>
+        <v>260</v>
       </c>
       <c r="I19" s="7">
-        <v>455958</v>
+        <v>329932</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>481</v>
+        <v>526</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>482</v>
+        <v>527</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>483</v>
+        <v>528</v>
       </c>
       <c r="M19" s="7">
-        <v>923</v>
+        <v>404</v>
       </c>
       <c r="N19" s="7">
-        <v>651089</v>
+        <v>420165</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>485</v>
+        <v>530</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>486</v>
+        <v>531</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,49 +7244,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>726</v>
+        <v>420</v>
       </c>
       <c r="D20" s="7">
-        <v>495386</v>
+        <v>273528</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>487</v>
+        <v>532</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>488</v>
+        <v>533</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>489</v>
+        <v>534</v>
       </c>
       <c r="H20" s="7">
-        <v>1057</v>
+        <v>564</v>
       </c>
       <c r="I20" s="7">
-        <v>559699</v>
+        <v>276711</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>490</v>
+        <v>535</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>491</v>
+        <v>536</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>492</v>
+        <v>537</v>
       </c>
       <c r="M20" s="7">
-        <v>1783</v>
+        <v>984</v>
       </c>
       <c r="N20" s="7">
-        <v>1055085</v>
+        <v>550240</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>493</v>
+        <v>538</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>494</v>
+        <v>539</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>495</v>
+        <v>540</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6644,10 +7295,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1018</v>
+        <v>564</v>
       </c>
       <c r="D21" s="7">
-        <v>690518</v>
+        <v>363761</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6659,10 +7310,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1688</v>
+        <v>824</v>
       </c>
       <c r="I21" s="7">
-        <v>1015657</v>
+        <v>606643</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6674,10 +7325,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2706</v>
+        <v>1388</v>
       </c>
       <c r="N21" s="7">
-        <v>1706174</v>
+        <v>970405</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6691,55 +7342,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>752</v>
+        <v>148</v>
       </c>
       <c r="D22" s="7">
-        <v>670090</v>
+        <v>88739</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>496</v>
+        <v>541</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>497</v>
+        <v>542</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
       <c r="H22" s="7">
-        <v>1580</v>
+        <v>371</v>
       </c>
       <c r="I22" s="7">
-        <v>1131391</v>
+        <v>181291</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>499</v>
+        <v>544</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>500</v>
+        <v>545</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>501</v>
+        <v>546</v>
       </c>
       <c r="M22" s="7">
-        <v>2332</v>
+        <v>519</v>
       </c>
       <c r="N22" s="7">
-        <v>1801481</v>
+        <v>270029</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>502</v>
+        <v>547</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>503</v>
+        <v>548</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>504</v>
+        <v>549</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,49 +7399,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2606</v>
+        <v>306</v>
       </c>
       <c r="D23" s="7">
-        <v>2698072</v>
+        <v>191679</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>505</v>
+        <v>550</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>506</v>
+        <v>551</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>507</v>
+        <v>552</v>
       </c>
       <c r="H23" s="7">
-        <v>3751</v>
+        <v>493</v>
       </c>
       <c r="I23" s="7">
-        <v>2656181</v>
+        <v>236417</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>508</v>
+        <v>553</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>509</v>
+        <v>554</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>510</v>
+        <v>555</v>
       </c>
       <c r="M23" s="7">
-        <v>6357</v>
+        <v>799</v>
       </c>
       <c r="N23" s="7">
-        <v>5354253</v>
+        <v>428097</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>511</v>
+        <v>556</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>512</v>
+        <v>557</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>513</v>
+        <v>558</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6799,63 +7450,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>454</v>
+      </c>
+      <c r="D24" s="7">
+        <v>280418</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>864</v>
+      </c>
+      <c r="I24" s="7">
+        <v>417708</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1318</v>
+      </c>
+      <c r="N24" s="7">
+        <v>698126</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>752</v>
+      </c>
+      <c r="D25" s="7">
+        <v>632243</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1580</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1126222</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2332</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1758466</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2606</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2811468</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3751</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2517381</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6357</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5328848</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3358</v>
       </c>
-      <c r="D24" s="7">
-        <v>3368162</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3443711</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5331</v>
       </c>
-      <c r="I24" s="7">
-        <v>3787572</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3643603</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8689</v>
       </c>
-      <c r="N24" s="7">
-        <v>7155734</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>7087314</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
